--- a/verification.xlsx
+++ b/verification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Ry1</t>
   </si>
@@ -54,13 +54,52 @@
   </si>
   <si>
     <t>With all loads</t>
+  </si>
+  <si>
+    <t>%difference</t>
+  </si>
+  <si>
+    <t>LE = Leading Edge</t>
+  </si>
+  <si>
+    <t>Total displacements</t>
+  </si>
+  <si>
+    <t>TE = Trainling Edge</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Rotation up</t>
+  </si>
+  <si>
+    <t>Rotaion down</t>
+  </si>
+  <si>
+    <t>x [mm]</t>
+  </si>
+  <si>
+    <t>LE_z [mm]</t>
+  </si>
+  <si>
+    <t>LE_y [mm]</t>
+  </si>
+  <si>
+    <t>TE_z [mm]</t>
+  </si>
+  <si>
+    <t>TE_y [mm]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +114,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -96,6 +149,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -111,49 +186,557 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,26 +1014,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,14 +1050,8 @@
       <c r="C2">
         <v>-5.6529391031301177</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,21 +1061,8 @@
       <c r="C3">
         <v>2.4822979998803354</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>56.872660609999997</v>
-      </c>
-      <c r="G3">
-        <v>-5.6529391031301177</v>
-      </c>
-      <c r="H3">
-        <f>ABS(F3-G3/F3) *100</f>
-        <v>5697.2057034266036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,21 +1072,8 @@
       <c r="C4">
         <v>2.3694099121046417</v>
       </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>129.06093035000001</v>
-      </c>
-      <c r="G4">
-        <v>2.4822979998803354</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H9" si="0">ABS(F4-G4/F4) *100</f>
-        <v>12904.169681438896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -525,21 +1083,23 @@
       <c r="C5">
         <v>-11.590242759361505</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>34.84497717</v>
-      </c>
-      <c r="G5">
-        <v>2.3694099121046417</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>3477.6978562896743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -549,21 +1109,36 @@
       <c r="C6">
         <v>5.0894651250992551</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>-329.14291558999997</v>
-      </c>
-      <c r="G6">
-        <v>-11.590242759361505</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>32917.812899490826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -573,62 +1148,197 @@
       <c r="C7">
         <v>4.8580102450642118</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>356.67488933999999</v>
-      </c>
-      <c r="G7">
-        <v>5.0894651250992551</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>35666.062014057716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>56.872660609999997</v>
+      </c>
+      <c r="G7" s="3">
+        <v>71.330101748465324</v>
+      </c>
+      <c r="H7" s="10">
+        <f>((ABS(F7)-ABS(G7))/ABS(F7)) *100</f>
+        <v>-25.420722335475293</v>
+      </c>
+      <c r="I7" s="9">
+        <v>56.872660609999997</v>
+      </c>
+      <c r="J7" s="5">
+        <v>69.779238672955344</v>
+      </c>
+      <c r="K7" s="10">
+        <f>((ABS(I7)-ABS(J7))/ABS(I7)) *100</f>
+        <v>-22.693817951407684</v>
+      </c>
+      <c r="L7" s="9">
+        <v>48.537538060000003</v>
+      </c>
+      <c r="M7" s="5">
+        <v>69.779238672955344</v>
+      </c>
+      <c r="N7" s="10">
+        <f>((ABS(L7)-ABS(M7))/ABS(L7)) *100</f>
+        <v>-43.763448790289431</v>
+      </c>
+      <c r="O7" s="2">
+        <f>N7-H7</f>
+        <v>-18.342726454814137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>37.9</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>-114.55079171</v>
-      </c>
-      <c r="G8">
-        <v>4.8580102450642118</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>129.06093035000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-103.18715666870473</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" ref="H8:H13" si="0">((ABS(F8)-ABS(G8))/ABS(F8)) *100</f>
+        <v>20.047719794928067</v>
+      </c>
+      <c r="I8" s="9">
+        <v>129.06093035000001</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-100.9999212065873</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" ref="K8:K13" si="1">((ABS(I8)-ABS(J8))/ABS(I8)) *100</f>
+        <v>21.742450691556403</v>
+      </c>
+      <c r="L8" s="9">
+        <v>-144.68241243</v>
+      </c>
+      <c r="M8" s="5">
+        <v>-100.9999212065873</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" ref="N8:N13" si="2">((ABS(L8)-ABS(M8))/ABS(L8)) *100</f>
+        <v>30.191984284577149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>34.84497717</v>
+      </c>
+      <c r="G9" s="3">
+        <v>35.17464631360528</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>11450.83824854757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>132.48221749000001</v>
-      </c>
-      <c r="H9">
+        <v>-0.94610233778287678</v>
+      </c>
+      <c r="I9" s="9">
+        <v>34.84497717</v>
+      </c>
+      <c r="J9" s="5">
+        <v>34.538273926997839</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.88019355416946377</v>
+      </c>
+      <c r="L9" s="9">
+        <v>34.74023416</v>
+      </c>
+      <c r="M9" s="5">
+        <v>34.538273926997839</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.58134390249648582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-329.14291558999997</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-300.94326055544781</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>13248.221749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.5676020047411061</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-329.14291558999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-454.93529563559315</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>-38.21816423425247</v>
+      </c>
+      <c r="L10" s="9">
+        <v>-497.00679652000002</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-454.93529563559315</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="2"/>
+        <v>8.4649749619095758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9">
+        <v>356.67488933999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>411.75838300702998</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>-15.44361414647323</v>
+      </c>
+      <c r="I11" s="9">
+        <v>356.67488933999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>628.93863916869407</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="1"/>
+        <v>-76.33387097490872</v>
+      </c>
+      <c r="L11" s="9">
+        <v>537.28834494</v>
+      </c>
+      <c r="M11" s="3">
+        <v>628.93863916869407</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="2"/>
+        <v>-17.057934550753902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -638,14 +1348,41 @@
       <c r="C12">
         <v>-5.6529391031301177</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-114.55079171</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-114.46677384176732</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3345515101615341E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-114.55079171</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-177.65499492328593</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="1"/>
+        <v>-55.088404253933312</v>
+      </c>
+      <c r="L12" s="9">
+        <v>-176.63343990999999</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-177.65499492328593</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.57834746003160342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -655,21 +1392,41 @@
       <c r="C13">
         <v>2.4822979998803354</v>
       </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>56.872660609999997</v>
-      </c>
-      <c r="G13" s="7">
-        <v>18.666289783822609</v>
-      </c>
-      <c r="H13">
-        <f>ABS(F13-G13/F13) *100</f>
-        <v>5654.4448608247076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11">
+        <v>132.48221749000001</v>
+      </c>
+      <c r="G13" s="12">
+        <v>39.727746184971103</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>70.012770817359083</v>
+      </c>
+      <c r="I13" s="11">
+        <v>132.48221749000001</v>
+      </c>
+      <c r="J13" s="12">
+        <v>39.727746184971103</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>70.012770817359083</v>
+      </c>
+      <c r="L13" s="11">
+        <v>187.37029082000001</v>
+      </c>
+      <c r="M13" s="12">
+        <v>39.727746184971103</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="2"/>
+        <v>78.797200980417898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -679,21 +1436,8 @@
       <c r="C14">
         <v>2.3694099121046417</v>
       </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>129.06093035000001</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-32.610375536195761</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H19" si="1">ABS(F14-G14/F14) *100</f>
-        <v>12931.360461360373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -703,21 +1447,8 @@
       <c r="C15">
         <v>-11.590242759361505</v>
       </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>34.84497717</v>
-      </c>
-      <c r="G15" s="7">
-        <v>24.040174976420708</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>3415.5059226902067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -727,21 +1458,8 @@
       <c r="C16">
         <v>5.0894651250992551</v>
       </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>-329.14291558999997</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-85.309299063253562</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>32940.210178244874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -751,164 +1469,388 @@
       <c r="C17">
         <v>4.8580102450642118</v>
       </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>356.67488933999999</v>
-      </c>
-      <c r="G17" s="6">
-        <v>129.79322258216828</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>35631.099149784372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18">
         <v>37.9</v>
       </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>-114.55079171</v>
-      </c>
-      <c r="G18" s="6">
-        <v>-52.418581490814702</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>11500.839292521918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>132.48221749000001</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>13248.221749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="32">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>48.537538060000003</v>
-      </c>
-      <c r="G24" s="7">
-        <v>18.666289783822609</v>
-      </c>
-      <c r="H24">
-        <f>ABS(F24-G24/F24) *100</f>
-        <v>4815.2963758749947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>-144.68241243</v>
-      </c>
-      <c r="G25" s="5">
-        <v>-32.610375536195761</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H30" si="2">ABS(F25-G25/F25) *100</f>
-        <v>14490.780524028352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>34.74023416</v>
-      </c>
-      <c r="G26" s="4">
-        <v>24.040174976420708</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>3404.8236090392843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>-497.00679652000002</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-85.309299063253562</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>49717.844266178436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>537.28834494</v>
-      </c>
-      <c r="G28" s="2">
-        <v>129.79322258216828</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>53704.677405203176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>-176.63343990999999</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-52.418581490814702</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>17693.020467615934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>187.37029082000001</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>18737.029082000001</v>
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34">
+        <v>8.5082534296760759</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0</v>
+      </c>
+      <c r="F24" s="36">
+        <v>8.4907445185062898</v>
+      </c>
+      <c r="G24" s="37">
+        <v>-3.7284010730007155</v>
+      </c>
+      <c r="H24" s="38">
+        <v>7.6471675269973263</v>
+      </c>
+      <c r="I24" s="39">
+        <v>-3.7284010730007155</v>
+      </c>
+      <c r="J24" s="40">
+        <v>7.6314306218807415</v>
+      </c>
+      <c r="K24" s="37">
+        <v>3.7284010730007155</v>
+      </c>
+      <c r="L24" s="38">
+        <v>7.6471675269973263</v>
+      </c>
+      <c r="M24" s="39">
+        <v>3.7284010730007155</v>
+      </c>
+      <c r="N24" s="38">
+        <v>7.6314306218807415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="41">
+        <v>149</v>
+      </c>
+      <c r="C25" s="42">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.813526778428538</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <v>6.7937931280307096</v>
+      </c>
+      <c r="G25" s="42">
+        <v>-2.9853075096336172</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6.1242739939159803</v>
+      </c>
+      <c r="I25" s="43">
+        <v>-2.9853075096336172</v>
+      </c>
+      <c r="J25" s="44">
+        <v>6.1047655003734622</v>
+      </c>
+      <c r="K25" s="42">
+        <v>2.9853075096336172</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6.1242739939159803</v>
+      </c>
+      <c r="M25" s="43">
+        <v>2.9853075096336172</v>
+      </c>
+      <c r="N25" s="1">
+        <v>6.1047655003734622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="41">
+        <v>418</v>
+      </c>
+      <c r="C26" s="42">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.4693076277561348</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
+        <v>1.4693076277561348</v>
+      </c>
+      <c r="G26" s="42">
+        <v>-0.64410206976539541</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="I26" s="43">
+        <v>-0.64410206976539541</v>
+      </c>
+      <c r="J26" s="44">
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="K26" s="42">
+        <v>0.64410206976539541</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="M26" s="43">
+        <v>0.64410206976539541</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.3206049480091657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="41">
+        <v>690</v>
+      </c>
+      <c r="C27" s="42">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.25648000431932738</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
+      <c r="F27" s="44">
+        <v>-1.7202300528100198</v>
+      </c>
+      <c r="G27" s="42">
+        <v>4.2432423039329592E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.23083939204146267</v>
+      </c>
+      <c r="I27" s="43">
+        <v>4.2432423039329592E-2</v>
+      </c>
+      <c r="J27" s="44">
+        <v>-1.5475878446192821</v>
+      </c>
+      <c r="K27" s="42">
+        <v>-4.2432423039329592E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.23083939204146267</v>
+      </c>
+      <c r="M27" s="43">
+        <v>-4.2432423039329592E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-1.5475878446192821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="45">
+        <v>1541</v>
+      </c>
+      <c r="C28" s="42">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20.687277816758932</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
+        <v>18.520312922986399</v>
+      </c>
+      <c r="G28" s="42">
+        <v>-8.8989342798182705</v>
+      </c>
+      <c r="H28" s="1">
+        <v>18.593918827004224</v>
+      </c>
+      <c r="I28" s="43">
+        <v>-8.8989342798182705</v>
+      </c>
+      <c r="J28" s="44">
+        <v>16.644491675888965</v>
+      </c>
+      <c r="K28" s="42">
+        <v>8.8989342798182705</v>
+      </c>
+      <c r="L28" s="1">
+        <v>18.593918827004224</v>
+      </c>
+      <c r="M28" s="43">
+        <v>8.8989342798182705</v>
+      </c>
+      <c r="N28" s="1">
+        <v>16.644491675888965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="46">
+        <v>1691</v>
+      </c>
+      <c r="C29" s="29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="31">
+        <v>25.769009610255154</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0</v>
+      </c>
+      <c r="F29" s="48">
+        <v>23.553463410336288</v>
+      </c>
+      <c r="G29" s="29">
+        <v>-11.122812758911442</v>
+      </c>
+      <c r="H29" s="31">
+        <v>23.161349107887819</v>
+      </c>
+      <c r="I29" s="47">
+        <v>-11.122812758911442</v>
+      </c>
+      <c r="J29" s="48">
+        <v>21.168257368046795</v>
+      </c>
+      <c r="K29" s="29">
+        <v>11.122812758911442</v>
+      </c>
+      <c r="L29" s="31">
+        <v>23.161349107887819</v>
+      </c>
+      <c r="M29" s="47">
+        <v>11.122812758911442</v>
+      </c>
+      <c r="N29" s="31">
+        <v>21.168257368046795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="41">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="41">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="41">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="45">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="46">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>